--- a/src/test/resources/NS4S/2000 HKST.xlsx
+++ b/src/test/resources/NS4S/2000 HKST.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,13 +449,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>4.22</v>
+        <v>3.38</v>
       </c>
       <c r="E2" s="2">
-        <v>3.06</v>
+        <v>4.29</v>
       </c>
       <c r="F2" s="2">
-        <v>5.41</v>
+        <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -463,13 +463,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>2.93</v>
+        <v>4.66</v>
       </c>
       <c r="E3" s="2">
-        <v>5.88</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="F3" s="2">
-        <v>4.1500000000000004</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -477,13 +477,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>3.91</v>
+        <v>5.15</v>
       </c>
       <c r="E4" s="2">
-        <v>5.28</v>
+        <v>3.56</v>
       </c>
       <c r="F4" s="2">
-        <v>4.3499999999999996</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -492,15 +492,15 @@
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(D2:D4)</f>
-        <v>3.686666666666667</v>
+        <v>4.3966666666666665</v>
       </c>
       <c r="E5" s="1">
         <f>AVERAGE(E2:E4)</f>
-        <v>4.7399999999999993</v>
+        <v>3.9966666666666666</v>
       </c>
       <c r="F5" s="1">
         <f>AVERAGE(F2:F4)</f>
-        <v>4.6366666666666667</v>
+        <v>4.0200000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -511,13 +511,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>5.82</v>
+        <v>3.7</v>
       </c>
       <c r="E6" s="2">
-        <v>3.91</v>
+        <v>3.68</v>
       </c>
       <c r="F6" s="2">
-        <v>5.71</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -525,13 +525,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>3.22</v>
+        <v>2.77</v>
       </c>
       <c r="E7" s="2">
-        <v>3.32</v>
+        <v>4.74</v>
       </c>
       <c r="F7" s="2">
-        <v>3.2</v>
+        <v>4.6100000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -539,13 +539,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>3.4</v>
+        <v>3.29</v>
       </c>
       <c r="E8" s="2">
-        <v>3.73</v>
+        <v>5.24</v>
       </c>
       <c r="F8" s="2">
-        <v>4.47</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -554,15 +554,15 @@
       </c>
       <c r="D9" s="1">
         <f>AVERAGE(D6:D8)</f>
-        <v>4.1466666666666674</v>
+        <v>3.2533333333333339</v>
       </c>
       <c r="E9" s="1">
         <f>AVERAGE(E6:E8)</f>
-        <v>3.6533333333333338</v>
+        <v>4.5533333333333337</v>
       </c>
       <c r="F9" s="1">
         <f>AVERAGE(F6:F8)</f>
-        <v>4.46</v>
+        <v>4.6366666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -576,13 +576,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>3.84</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="E10" s="2">
-        <v>5.47</v>
+        <v>2.74</v>
       </c>
       <c r="F10" s="2">
-        <v>5.67</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -590,13 +590,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>3</v>
+        <v>3.32</v>
       </c>
       <c r="E11" s="2">
-        <v>2.71</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="F11" s="2">
-        <v>4.42</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -604,13 +604,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>5.54</v>
+        <v>2.8</v>
       </c>
       <c r="E12" s="2">
-        <v>4.99</v>
+        <v>5.7</v>
       </c>
       <c r="F12" s="2">
-        <v>4.46</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -619,15 +619,15 @@
       </c>
       <c r="D13" s="1">
         <f>AVERAGE(D10:D12)</f>
-        <v>4.126666666666666</v>
+        <v>3.4766666666666666</v>
       </c>
       <c r="E13" s="1">
         <f>AVERAGE(E10:E12)</f>
-        <v>4.3899999999999997</v>
+        <v>4.2933333333333339</v>
       </c>
       <c r="F13" s="1">
         <f>AVERAGE(F10:F12)</f>
-        <v>4.8500000000000005</v>
+        <v>3.5833333333333335</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -638,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>2.99</v>
+        <v>5.45</v>
       </c>
       <c r="E14" s="2">
-        <v>5.29</v>
+        <v>5.56</v>
       </c>
       <c r="F14" s="2">
-        <v>4.05</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -652,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>4.0599999999999996</v>
+        <v>3.43</v>
       </c>
       <c r="E15" s="2">
-        <v>4.3</v>
+        <v>4.91</v>
       </c>
       <c r="F15" s="2">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -666,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>4.1399999999999997</v>
+        <v>3.51</v>
       </c>
       <c r="E16" s="2">
-        <v>3.92</v>
+        <v>5.48</v>
       </c>
       <c r="F16" s="2">
-        <v>5.83</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
@@ -681,15 +681,15 @@
       </c>
       <c r="D17" s="1">
         <f>AVERAGE(D14:D16)</f>
-        <v>3.73</v>
+        <v>4.13</v>
       </c>
       <c r="E17" s="1">
         <f>AVERAGE(E14:E16)</f>
-        <v>4.503333333333333</v>
+        <v>5.3166666666666664</v>
       </c>
       <c r="F17" s="1">
         <f>AVERAGE(F14:F16)</f>
-        <v>4.22</v>
+        <v>4.1566666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/NS4S/2000 HKST.xlsx
+++ b/src/test/resources/NS4S/2000 HKST.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D17" activeCellId="1" sqref="D13:F13 D17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,13 +449,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>3.38</v>
+        <v>4.59</v>
       </c>
       <c r="E2" s="2">
-        <v>4.29</v>
+        <v>3.12</v>
       </c>
       <c r="F2" s="2">
-        <v>4.1900000000000004</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -463,13 +463,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>4.66</v>
+        <v>5.47</v>
       </c>
       <c r="E3" s="2">
-        <v>4.1399999999999997</v>
+        <v>4.07</v>
       </c>
       <c r="F3" s="2">
-        <v>4.96</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -477,13 +477,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>5.15</v>
+        <v>4.53</v>
       </c>
       <c r="E4" s="2">
-        <v>3.56</v>
+        <v>2.67</v>
       </c>
       <c r="F4" s="2">
-        <v>2.91</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -492,15 +492,15 @@
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(D2:D4)</f>
-        <v>4.3966666666666665</v>
+        <v>4.8633333333333333</v>
       </c>
       <c r="E5" s="1">
         <f>AVERAGE(E2:E4)</f>
-        <v>3.9966666666666666</v>
+        <v>3.2866666666666666</v>
       </c>
       <c r="F5" s="1">
         <f>AVERAGE(F2:F4)</f>
-        <v>4.0200000000000005</v>
+        <v>4.3233333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -511,13 +511,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="E6" s="2">
-        <v>3.68</v>
+        <v>3.19</v>
       </c>
       <c r="F6" s="2">
-        <v>3.71</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -525,13 +525,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>4.74</v>
+        <v>5.03</v>
       </c>
       <c r="F7" s="2">
-        <v>4.6100000000000003</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -539,13 +539,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>3.29</v>
+        <v>3.15</v>
       </c>
       <c r="E8" s="2">
-        <v>5.24</v>
+        <v>4.33</v>
       </c>
       <c r="F8" s="2">
-        <v>5.59</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -554,15 +554,15 @@
       </c>
       <c r="D9" s="1">
         <f>AVERAGE(D6:D8)</f>
-        <v>3.2533333333333339</v>
+        <v>3.9499999999999997</v>
       </c>
       <c r="E9" s="1">
         <f>AVERAGE(E6:E8)</f>
-        <v>4.5533333333333337</v>
+        <v>4.1833333333333336</v>
       </c>
       <c r="F9" s="1">
         <f>AVERAGE(F6:F8)</f>
-        <v>4.6366666666666667</v>
+        <v>3.9066666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -576,13 +576,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>4.3099999999999996</v>
+        <v>5.35</v>
       </c>
       <c r="E10" s="2">
-        <v>2.74</v>
+        <v>4.24</v>
       </c>
       <c r="F10" s="2">
-        <v>3.62</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -590,13 +590,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>3.32</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E11" s="2">
-        <v>4.4400000000000004</v>
+        <v>5.55</v>
       </c>
       <c r="F11" s="2">
-        <v>3.83</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -604,13 +604,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>2.8</v>
+        <v>3.18</v>
       </c>
       <c r="E12" s="2">
-        <v>5.7</v>
+        <v>3.31</v>
       </c>
       <c r="F12" s="2">
-        <v>3.3</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -619,15 +619,15 @@
       </c>
       <c r="D13" s="1">
         <f>AVERAGE(D10:D12)</f>
-        <v>3.4766666666666666</v>
+        <v>4.4633333333333338</v>
       </c>
       <c r="E13" s="1">
         <f>AVERAGE(E10:E12)</f>
-        <v>4.2933333333333339</v>
+        <v>4.3666666666666663</v>
       </c>
       <c r="F13" s="1">
         <f>AVERAGE(F10:F12)</f>
-        <v>3.5833333333333335</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -638,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>5.45</v>
+        <v>4.62</v>
       </c>
       <c r="E14" s="2">
-        <v>5.56</v>
+        <v>3.7</v>
       </c>
       <c r="F14" s="2">
-        <v>3.78</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -652,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>3.43</v>
+        <v>4.08</v>
       </c>
       <c r="E15" s="2">
-        <v>4.91</v>
+        <v>3.78</v>
       </c>
       <c r="F15" s="2">
-        <v>2.98</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -666,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>3.51</v>
+        <v>5.74</v>
       </c>
       <c r="E16" s="2">
-        <v>5.48</v>
+        <v>5.82</v>
       </c>
       <c r="F16" s="2">
-        <v>5.71</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
@@ -681,15 +681,15 @@
       </c>
       <c r="D17" s="1">
         <f>AVERAGE(D14:D16)</f>
-        <v>4.13</v>
+        <v>4.8133333333333335</v>
       </c>
       <c r="E17" s="1">
         <f>AVERAGE(E14:E16)</f>
-        <v>5.3166666666666664</v>
+        <v>4.4333333333333336</v>
       </c>
       <c r="F17" s="1">
         <f>AVERAGE(F14:F16)</f>
-        <v>4.1566666666666663</v>
+        <v>4.96</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/NS4S/2000 HKST.xlsx
+++ b/src/test/resources/NS4S/2000 HKST.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" activeCellId="1" sqref="D13:F13 D17:F17"/>
+      <selection activeCell="D17" sqref="D17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,13 +449,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>4.59</v>
+        <v>3.74</v>
       </c>
       <c r="E2" s="2">
-        <v>3.12</v>
+        <v>3.23</v>
       </c>
       <c r="F2" s="2">
-        <v>5.9</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -463,13 +463,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>5.47</v>
+        <v>2.91</v>
       </c>
       <c r="E3" s="2">
-        <v>4.07</v>
+        <v>5.09</v>
       </c>
       <c r="F3" s="2">
-        <v>3.84</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -477,13 +477,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>4.53</v>
+        <v>4.57</v>
       </c>
       <c r="E4" s="2">
-        <v>2.67</v>
+        <v>5.86</v>
       </c>
       <c r="F4" s="2">
-        <v>3.23</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -492,15 +492,15 @@
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(D2:D4)</f>
-        <v>4.8633333333333333</v>
+        <v>3.74</v>
       </c>
       <c r="E5" s="1">
         <f>AVERAGE(E2:E4)</f>
-        <v>3.2866666666666666</v>
+        <v>4.7266666666666666</v>
       </c>
       <c r="F5" s="1">
         <f>AVERAGE(F2:F4)</f>
-        <v>4.3233333333333333</v>
+        <v>2.9366666666666661</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -576,13 +576,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>5.35</v>
+        <v>3.91</v>
       </c>
       <c r="E10" s="2">
-        <v>4.24</v>
+        <v>3.09</v>
       </c>
       <c r="F10" s="2">
-        <v>2.77</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -590,13 +590,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>4.8600000000000003</v>
+        <v>5.35</v>
       </c>
       <c r="E11" s="2">
-        <v>5.55</v>
+        <v>5.19</v>
       </c>
       <c r="F11" s="2">
-        <v>5.57</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -604,13 +604,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>3.18</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="E12" s="2">
-        <v>3.31</v>
+        <v>4.99</v>
       </c>
       <c r="F12" s="2">
-        <v>4.92</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -619,15 +619,15 @@
       </c>
       <c r="D13" s="1">
         <f>AVERAGE(D10:D12)</f>
-        <v>4.4633333333333338</v>
+        <v>4.79</v>
       </c>
       <c r="E13" s="1">
         <f>AVERAGE(E10:E12)</f>
-        <v>4.3666666666666663</v>
+        <v>4.4233333333333338</v>
       </c>
       <c r="F13" s="1">
         <f>AVERAGE(F10:F12)</f>
-        <v>4.42</v>
+        <v>4.1399999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -638,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>4.62</v>
+        <v>5.16</v>
       </c>
       <c r="E14" s="2">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="F14" s="2">
-        <v>3.81</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -652,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>4.08</v>
+        <v>5.71</v>
       </c>
       <c r="E15" s="2">
-        <v>3.78</v>
+        <v>3.18</v>
       </c>
       <c r="F15" s="2">
-        <v>6</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -666,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>5.74</v>
+        <v>4.33</v>
       </c>
       <c r="E16" s="2">
-        <v>5.82</v>
+        <v>2.89</v>
       </c>
       <c r="F16" s="2">
-        <v>5.07</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
@@ -681,15 +681,15 @@
       </c>
       <c r="D17" s="1">
         <f>AVERAGE(D14:D16)</f>
-        <v>4.8133333333333335</v>
+        <v>5.0666666666666673</v>
       </c>
       <c r="E17" s="1">
         <f>AVERAGE(E14:E16)</f>
-        <v>4.4333333333333336</v>
+        <v>3.25</v>
       </c>
       <c r="F17" s="1">
         <f>AVERAGE(F14:F16)</f>
-        <v>4.96</v>
+        <v>4.67</v>
       </c>
     </row>
   </sheetData>
